--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelEnumerableRenderTest/TestRenderEnumerable.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelEnumerableRenderTest/TestRenderEnumerable.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <x:si>
+    <x:t>Sex</x:t>
+  </x:si>
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -25,7 +28,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
   </x:si>
   <x:si>
     <x:t>Test2</x:t>
@@ -398,13 +407,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H6"/>
+  <x:dimension ref="A1:K6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:11">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -414,45 +423,57 @@
       <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3" spans="1:11">
       <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="D3" s="1">
+      <x:c r="E3" s="1">
         <x:v>43040</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
+    <x:row r="4" spans="1:11">
       <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="n">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>43041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="n">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D4" s="1">
-        <x:v>43041</x:v>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="n">
+        <x:v>5500.8</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>43042</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="B5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="n">
-        <x:v>5500.8</x:v>
-      </x:c>
-      <x:c r="D5" s="1">
-        <x:v>43042</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="C6" s="2" t="n">
+    <x:row r="6" spans="1:11">
+      <x:c r="D6" s="2" t="n">
         <x:v>5666.56</x:v>
       </x:c>
-      <x:c r="D6" s="1">
+      <x:c r="E6" s="1">
         <x:v>43042</x:v>
       </x:c>
     </x:row>
